--- a/data/purchase/purchase_order_data.xlsx
+++ b/data/purchase/purchase_order_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/purchase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404604E1-9F1F-4944-8B83-636A4D9D6C00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1B4C34-0279-E549-B40D-DCB632CEE2FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,10 +473,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>CheckTpye</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>ExpectedCode</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -740,6 +736,10 @@
   </si>
   <si>
     <t>{"id":"$..id"}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckType</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +748,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1208,6 +1208,21 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,21 +1252,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1617,14 +1617,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="39" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" style="14" customWidth="1"/>
     <col min="3" max="4" width="22.83203125" style="14" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="15" customWidth="1"/>
@@ -1639,21 +1639,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="90.75" customHeight="1" thickBot="1">
-      <c r="A1" s="45"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
@@ -1708,7 +1708,7 @@
       <c r="BO1" s="13"/>
     </row>
     <row r="2" spans="1:258" s="11" customFormat="1" ht="17" thickBot="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -1727,31 +1727,31 @@
         <v>11</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="29" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>25</v>
       </c>
       <c r="L2" s="29" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="31" t="s">
-        <v>33</v>
-      </c>
       <c r="O2" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
@@ -1816,38 +1816,38 @@
       <c r="BX2" s="17"/>
     </row>
     <row r="3" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A3" s="47">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="32">
         <v>200</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L3" s="33" t="s">
         <v>20</v>
@@ -2102,38 +2102,38 @@
       <c r="IX3" s="14"/>
     </row>
     <row r="4" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A4" s="47">
+      <c r="A4" s="37">
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="33" t="s">
         <v>60</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>61</v>
       </c>
       <c r="L4" s="33" t="s">
         <v>20</v>
@@ -2388,38 +2388,38 @@
       <c r="IX4" s="14"/>
     </row>
     <row r="5" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A5" s="47">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="32">
         <v>200</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L5" s="33" t="s">
         <v>20</v>
@@ -2674,38 +2674,38 @@
       <c r="IX5" s="14"/>
     </row>
     <row r="6" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A6" s="47">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J6" s="32">
         <v>200</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="33" t="s">
         <v>20</v>
@@ -2958,45 +2958,45 @@
       <c r="IX6" s="14"/>
     </row>
     <row r="7" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A7" s="47">
+      <c r="A7" s="37">
         <v>5</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L7" s="33" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7" s="34"/>
       <c r="P7" s="13"/>
@@ -3244,47 +3244,47 @@
       <c r="IX7" s="14"/>
     </row>
     <row r="8" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A8" s="47">
+      <c r="A8" s="37">
         <v>6</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="33" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>40</v>
       </c>
       <c r="L8" s="33" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O8" s="34"/>
       <c r="P8" s="13"/>
@@ -3532,47 +3532,47 @@
       <c r="IX8" s="14"/>
     </row>
     <row r="9" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A9" s="47">
+      <c r="A9" s="37">
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="33" t="s">
         <v>39</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>40</v>
       </c>
       <c r="L9" s="33" t="s">
         <v>20</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O9" s="34"/>
       <c r="P9" s="13"/>
@@ -3820,47 +3820,47 @@
       <c r="IX9" s="14"/>
     </row>
     <row r="10" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A10" s="47">
+      <c r="A10" s="37">
         <v>8</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>39</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>40</v>
       </c>
       <c r="L10" s="33" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O10" s="34"/>
       <c r="P10" s="13"/>
@@ -4108,47 +4108,47 @@
       <c r="IX10" s="14"/>
     </row>
     <row r="11" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A11" s="47">
+      <c r="A11" s="37">
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="33" t="s">
         <v>39</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>40</v>
       </c>
       <c r="L11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O11" s="34"/>
       <c r="P11" s="13"/>
@@ -4396,47 +4396,47 @@
       <c r="IX11" s="14"/>
     </row>
     <row r="12" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
-      <c r="A12" s="47">
+      <c r="A12" s="37">
         <v>10</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>49</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="13"/>
@@ -4684,7 +4684,7 @@
       <c r="IX12" s="14"/>
     </row>
     <row r="13" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A13" s="48"/>
+      <c r="A13" s="38"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="H13" s="21"/>
@@ -4697,7 +4697,7 @@
       <c r="O13" s="21"/>
     </row>
     <row r="14" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A14" s="48"/>
+      <c r="A14" s="38"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="H14" s="21"/>
@@ -4710,7 +4710,7 @@
       <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A15" s="48"/>
+      <c r="A15" s="38"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="H15" s="21"/>
@@ -4723,7 +4723,7 @@
       <c r="O15" s="21"/>
     </row>
     <row r="16" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A16" s="48"/>
+      <c r="A16" s="38"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="H16" s="21"/>
@@ -4736,7 +4736,7 @@
       <c r="O16" s="21"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A17" s="48"/>
+      <c r="A17" s="38"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="H17" s="21"/>
@@ -4749,7 +4749,7 @@
       <c r="O17" s="21"/>
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="38"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="H18" s="21"/>
@@ -4762,7 +4762,7 @@
       <c r="O18" s="21"/>
     </row>
     <row r="19" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A19" s="48"/>
+      <c r="A19" s="38"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="H19" s="21"/>
@@ -4775,7 +4775,7 @@
       <c r="O19" s="21"/>
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A20" s="48"/>
+      <c r="A20" s="38"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="H20" s="21"/>
@@ -4788,7 +4788,7 @@
       <c r="O20" s="21"/>
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A21" s="48"/>
+      <c r="A21" s="38"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="H21" s="21"/>
@@ -4801,7 +4801,7 @@
       <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A22" s="48"/>
+      <c r="A22" s="38"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="H22" s="21"/>
@@ -4814,7 +4814,7 @@
       <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A23" s="48"/>
+      <c r="A23" s="38"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="H23" s="21"/>
@@ -4827,7 +4827,7 @@
       <c r="O23" s="21"/>
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A24" s="48"/>
+      <c r="A24" s="38"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="H24" s="21"/>
@@ -4840,7 +4840,7 @@
       <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A25" s="48"/>
+      <c r="A25" s="38"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="H25" s="21"/>
@@ -4853,7 +4853,7 @@
       <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A26" s="48"/>
+      <c r="A26" s="38"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="H26" s="21"/>
@@ -4866,7 +4866,7 @@
       <c r="O26" s="21"/>
     </row>
     <row r="27" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A27" s="48"/>
+      <c r="A27" s="38"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="H27" s="21"/>
@@ -4879,7 +4879,7 @@
       <c r="O27" s="21"/>
     </row>
     <row r="28" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A28" s="48"/>
+      <c r="A28" s="38"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="H28" s="21"/>
@@ -4892,7 +4892,7 @@
       <c r="O28" s="21"/>
     </row>
     <row r="29" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="38"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="H29" s="21"/>
@@ -4905,7 +4905,7 @@
       <c r="O29" s="21"/>
     </row>
     <row r="30" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="38"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="H30" s="21"/>
@@ -4918,7 +4918,7 @@
       <c r="O30" s="21"/>
     </row>
     <row r="31" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="38"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="H31" s="21"/>
@@ -4931,7 +4931,7 @@
       <c r="O31" s="21"/>
     </row>
     <row r="32" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="A32" s="38"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="H32" s="21"/>
@@ -4944,7 +4944,7 @@
       <c r="O32" s="21"/>
     </row>
     <row r="33" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="A33" s="38"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="H33" s="21"/>
@@ -4957,7 +4957,7 @@
       <c r="O33" s="21"/>
     </row>
     <row r="34" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="A34" s="38"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="H34" s="21"/>
@@ -4970,7 +4970,7 @@
       <c r="O34" s="21"/>
     </row>
     <row r="35" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="A35" s="38"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
       <c r="H35" s="21"/>
@@ -4983,7 +4983,7 @@
       <c r="O35" s="21"/>
     </row>
     <row r="36" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="A36" s="38"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="H36" s="21"/>
@@ -4996,7 +4996,7 @@
       <c r="O36" s="21"/>
     </row>
     <row r="37" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A37" s="48"/>
+      <c r="A37" s="38"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="H37" s="21"/>
@@ -5009,7 +5009,7 @@
       <c r="O37" s="21"/>
     </row>
     <row r="38" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A38" s="48"/>
+      <c r="A38" s="38"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="H38" s="21"/>
@@ -5022,7 +5022,7 @@
       <c r="O38" s="21"/>
     </row>
     <row r="39" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A39" s="48"/>
+      <c r="A39" s="38"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="H39" s="21"/>
@@ -5035,7 +5035,7 @@
       <c r="O39" s="21"/>
     </row>
     <row r="40" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A40" s="48"/>
+      <c r="A40" s="38"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="H40" s="21"/>
@@ -5048,7 +5048,7 @@
       <c r="O40" s="21"/>
     </row>
     <row r="41" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A41" s="48"/>
+      <c r="A41" s="38"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="H41" s="21"/>
@@ -5061,7 +5061,7 @@
       <c r="O41" s="21"/>
     </row>
     <row r="42" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A42" s="48"/>
+      <c r="A42" s="38"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="H42" s="21"/>
@@ -5074,7 +5074,7 @@
       <c r="O42" s="21"/>
     </row>
     <row r="43" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A43" s="48"/>
+      <c r="A43" s="38"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="H43" s="21"/>
@@ -5087,7 +5087,7 @@
       <c r="O43" s="21"/>
     </row>
     <row r="44" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A44" s="48"/>
+      <c r="A44" s="38"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="H44" s="21"/>
@@ -5100,7 +5100,7 @@
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A45" s="48"/>
+      <c r="A45" s="38"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="H45" s="21"/>
@@ -5113,7 +5113,7 @@
       <c r="O45" s="21"/>
     </row>
     <row r="46" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A46" s="48"/>
+      <c r="A46" s="38"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="H46" s="21"/>
@@ -5126,7 +5126,7 @@
       <c r="O46" s="21"/>
     </row>
     <row r="47" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A47" s="48"/>
+      <c r="A47" s="38"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="H47" s="21"/>
@@ -5139,7 +5139,7 @@
       <c r="O47" s="21"/>
     </row>
     <row r="48" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A48" s="48"/>
+      <c r="A48" s="38"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="H48" s="21"/>
@@ -5152,7 +5152,7 @@
       <c r="O48" s="21"/>
     </row>
     <row r="49" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A49" s="48"/>
+      <c r="A49" s="38"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
       <c r="H49" s="21"/>
@@ -5165,7 +5165,7 @@
       <c r="O49" s="21"/>
     </row>
     <row r="50" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A50" s="48"/>
+      <c r="A50" s="38"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
       <c r="H50" s="21"/>
@@ -5178,7 +5178,7 @@
       <c r="O50" s="21"/>
     </row>
     <row r="51" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A51" s="48"/>
+      <c r="A51" s="38"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
       <c r="H51" s="21"/>
@@ -5191,7 +5191,7 @@
       <c r="O51" s="21"/>
     </row>
     <row r="52" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A52" s="48"/>
+      <c r="A52" s="38"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
       <c r="H52" s="21"/>
@@ -5204,7 +5204,7 @@
       <c r="O52" s="21"/>
     </row>
     <row r="53" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A53" s="48"/>
+      <c r="A53" s="38"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
       <c r="H53" s="21"/>
@@ -5217,7 +5217,7 @@
       <c r="O53" s="21"/>
     </row>
     <row r="54" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A54" s="48"/>
+      <c r="A54" s="38"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
       <c r="H54" s="21"/>
@@ -5230,7 +5230,7 @@
       <c r="O54" s="21"/>
     </row>
     <row r="55" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A55" s="48"/>
+      <c r="A55" s="38"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
       <c r="H55" s="21"/>
@@ -5243,7 +5243,7 @@
       <c r="O55" s="21"/>
     </row>
     <row r="56" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A56" s="48"/>
+      <c r="A56" s="38"/>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
       <c r="H56" s="21"/>
@@ -5256,7 +5256,7 @@
       <c r="O56" s="21"/>
     </row>
     <row r="57" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A57" s="48"/>
+      <c r="A57" s="38"/>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
       <c r="H57" s="21"/>
@@ -5269,7 +5269,7 @@
       <c r="O57" s="21"/>
     </row>
     <row r="58" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A58" s="48"/>
+      <c r="A58" s="38"/>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
       <c r="H58" s="21"/>
@@ -5282,7 +5282,7 @@
       <c r="O58" s="21"/>
     </row>
     <row r="59" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A59" s="48"/>
+      <c r="A59" s="38"/>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
       <c r="H59" s="21"/>
@@ -5295,7 +5295,7 @@
       <c r="O59" s="21"/>
     </row>
     <row r="60" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A60" s="48"/>
+      <c r="A60" s="38"/>
       <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="H60" s="21"/>
@@ -5308,7 +5308,7 @@
       <c r="O60" s="21"/>
     </row>
     <row r="61" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A61" s="48"/>
+      <c r="A61" s="38"/>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
       <c r="H61" s="21"/>
@@ -5321,7 +5321,7 @@
       <c r="O61" s="21"/>
     </row>
     <row r="62" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A62" s="48"/>
+      <c r="A62" s="38"/>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
       <c r="H62" s="21"/>
@@ -5334,7 +5334,7 @@
       <c r="O62" s="21"/>
     </row>
     <row r="63" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A63" s="48"/>
+      <c r="A63" s="38"/>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="H63" s="21"/>
@@ -5347,7 +5347,7 @@
       <c r="O63" s="21"/>
     </row>
     <row r="64" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A64" s="48"/>
+      <c r="A64" s="38"/>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
       <c r="H64" s="21"/>
@@ -5360,7 +5360,7 @@
       <c r="O64" s="21"/>
     </row>
     <row r="65" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A65" s="48"/>
+      <c r="A65" s="38"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
       <c r="H65" s="21"/>
@@ -5373,7 +5373,7 @@
       <c r="O65" s="21"/>
     </row>
     <row r="66" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A66" s="48"/>
+      <c r="A66" s="38"/>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="H66" s="21"/>
@@ -5386,7 +5386,7 @@
       <c r="O66" s="21"/>
     </row>
     <row r="67" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A67" s="48"/>
+      <c r="A67" s="38"/>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="H67" s="21"/>
@@ -5399,7 +5399,7 @@
       <c r="O67" s="21"/>
     </row>
     <row r="68" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A68" s="48"/>
+      <c r="A68" s="38"/>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
       <c r="H68" s="21"/>
@@ -5412,7 +5412,7 @@
       <c r="O68" s="21"/>
     </row>
     <row r="69" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A69" s="48"/>
+      <c r="A69" s="38"/>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
       <c r="H69" s="21"/>
@@ -5425,7 +5425,7 @@
       <c r="O69" s="21"/>
     </row>
     <row r="70" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A70" s="48"/>
+      <c r="A70" s="38"/>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
       <c r="H70" s="21"/>
@@ -5438,7 +5438,7 @@
       <c r="O70" s="21"/>
     </row>
     <row r="71" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A71" s="48"/>
+      <c r="A71" s="38"/>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
       <c r="H71" s="21"/>
@@ -5451,7 +5451,7 @@
       <c r="O71" s="21"/>
     </row>
     <row r="72" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A72" s="48"/>
+      <c r="A72" s="38"/>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
       <c r="H72" s="21"/>
@@ -5464,7 +5464,7 @@
       <c r="O72" s="21"/>
     </row>
     <row r="73" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A73" s="48"/>
+      <c r="A73" s="38"/>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
       <c r="H73" s="21"/>
@@ -5477,7 +5477,7 @@
       <c r="O73" s="21"/>
     </row>
     <row r="74" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A74" s="48"/>
+      <c r="A74" s="38"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
       <c r="H74" s="21"/>
@@ -5490,7 +5490,7 @@
       <c r="O74" s="21"/>
     </row>
     <row r="75" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A75" s="48"/>
+      <c r="A75" s="38"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
       <c r="H75" s="21"/>
@@ -5503,7 +5503,7 @@
       <c r="O75" s="21"/>
     </row>
     <row r="76" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A76" s="48"/>
+      <c r="A76" s="38"/>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
       <c r="H76" s="21"/>
@@ -5516,7 +5516,7 @@
       <c r="O76" s="21"/>
     </row>
     <row r="77" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A77" s="48"/>
+      <c r="A77" s="38"/>
       <c r="E77" s="20"/>
       <c r="F77" s="20"/>
       <c r="H77" s="21"/>
@@ -5529,7 +5529,7 @@
       <c r="O77" s="21"/>
     </row>
     <row r="78" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A78" s="48"/>
+      <c r="A78" s="38"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
       <c r="H78" s="21"/>
@@ -5542,7 +5542,7 @@
       <c r="O78" s="21"/>
     </row>
     <row r="79" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A79" s="48"/>
+      <c r="A79" s="38"/>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
       <c r="H79" s="21"/>
@@ -5555,7 +5555,7 @@
       <c r="O79" s="21"/>
     </row>
     <row r="80" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A80" s="48"/>
+      <c r="A80" s="38"/>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
       <c r="H80" s="21"/>
@@ -5568,7 +5568,7 @@
       <c r="O80" s="21"/>
     </row>
     <row r="81" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A81" s="48"/>
+      <c r="A81" s="38"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="H81" s="21"/>
@@ -5581,7 +5581,7 @@
       <c r="O81" s="21"/>
     </row>
     <row r="82" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A82" s="48"/>
+      <c r="A82" s="38"/>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
       <c r="H82" s="21"/>
@@ -5594,7 +5594,7 @@
       <c r="O82" s="21"/>
     </row>
     <row r="83" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A83" s="48"/>
+      <c r="A83" s="38"/>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
       <c r="H83" s="21"/>
@@ -5607,7 +5607,7 @@
       <c r="O83" s="21"/>
     </row>
     <row r="84" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A84" s="48"/>
+      <c r="A84" s="38"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
       <c r="H84" s="21"/>
@@ -5620,7 +5620,7 @@
       <c r="O84" s="21"/>
     </row>
     <row r="85" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A85" s="48"/>
+      <c r="A85" s="38"/>
       <c r="E85" s="20"/>
       <c r="F85" s="20"/>
       <c r="H85" s="21"/>
@@ -5633,7 +5633,7 @@
       <c r="O85" s="21"/>
     </row>
     <row r="86" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A86" s="48"/>
+      <c r="A86" s="38"/>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
       <c r="H86" s="21"/>
@@ -5646,7 +5646,7 @@
       <c r="O86" s="21"/>
     </row>
     <row r="87" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A87" s="48"/>
+      <c r="A87" s="38"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
       <c r="H87" s="21"/>
@@ -5659,7 +5659,7 @@
       <c r="O87" s="21"/>
     </row>
     <row r="88" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A88" s="48"/>
+      <c r="A88" s="38"/>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
       <c r="H88" s="21"/>
@@ -5672,7 +5672,7 @@
       <c r="O88" s="21"/>
     </row>
     <row r="89" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A89" s="48"/>
+      <c r="A89" s="38"/>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
       <c r="H89" s="21"/>
@@ -5685,7 +5685,7 @@
       <c r="O89" s="21"/>
     </row>
     <row r="90" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A90" s="48"/>
+      <c r="A90" s="38"/>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
       <c r="H90" s="21"/>
@@ -5698,7 +5698,7 @@
       <c r="O90" s="21"/>
     </row>
     <row r="91" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A91" s="48"/>
+      <c r="A91" s="38"/>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
       <c r="H91" s="21"/>
@@ -5711,7 +5711,7 @@
       <c r="O91" s="21"/>
     </row>
     <row r="92" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A92" s="48"/>
+      <c r="A92" s="38"/>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
       <c r="H92" s="21"/>
@@ -5724,7 +5724,7 @@
       <c r="O92" s="21"/>
     </row>
     <row r="93" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A93" s="48"/>
+      <c r="A93" s="38"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
       <c r="H93" s="21"/>
@@ -5737,7 +5737,7 @@
       <c r="O93" s="21"/>
     </row>
     <row r="94" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A94" s="48"/>
+      <c r="A94" s="38"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
       <c r="H94" s="21"/>
@@ -5750,7 +5750,7 @@
       <c r="O94" s="21"/>
     </row>
     <row r="95" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A95" s="48"/>
+      <c r="A95" s="38"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
       <c r="H95" s="21"/>
@@ -5763,7 +5763,7 @@
       <c r="O95" s="21"/>
     </row>
     <row r="96" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A96" s="48"/>
+      <c r="A96" s="38"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
       <c r="H96" s="21"/>
@@ -5776,7 +5776,7 @@
       <c r="O96" s="21"/>
     </row>
     <row r="97" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A97" s="48"/>
+      <c r="A97" s="38"/>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
       <c r="H97" s="21"/>
@@ -5789,7 +5789,7 @@
       <c r="O97" s="21"/>
     </row>
     <row r="98" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A98" s="48"/>
+      <c r="A98" s="38"/>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
       <c r="H98" s="21"/>
@@ -5802,7 +5802,7 @@
       <c r="O98" s="21"/>
     </row>
     <row r="99" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A99" s="48"/>
+      <c r="A99" s="38"/>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
       <c r="H99" s="21"/>
@@ -5815,7 +5815,7 @@
       <c r="O99" s="21"/>
     </row>
     <row r="100" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A100" s="48"/>
+      <c r="A100" s="38"/>
       <c r="E100" s="20"/>
       <c r="F100" s="20"/>
       <c r="H100" s="21"/>
@@ -5828,7 +5828,7 @@
       <c r="O100" s="21"/>
     </row>
     <row r="101" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A101" s="48"/>
+      <c r="A101" s="38"/>
       <c r="E101" s="20"/>
       <c r="F101" s="20"/>
       <c r="H101" s="21"/>
@@ -5841,7 +5841,7 @@
       <c r="O101" s="21"/>
     </row>
     <row r="102" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A102" s="48"/>
+      <c r="A102" s="38"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="H102" s="21"/>
@@ -5854,7 +5854,7 @@
       <c r="O102" s="21"/>
     </row>
     <row r="103" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A103" s="48"/>
+      <c r="A103" s="38"/>
       <c r="E103" s="20"/>
       <c r="F103" s="20"/>
       <c r="H103" s="21"/>
@@ -5867,7 +5867,7 @@
       <c r="O103" s="21"/>
     </row>
     <row r="104" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A104" s="48"/>
+      <c r="A104" s="38"/>
       <c r="E104" s="20"/>
       <c r="F104" s="20"/>
       <c r="H104" s="21"/>
@@ -5880,7 +5880,7 @@
       <c r="O104" s="21"/>
     </row>
     <row r="105" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A105" s="48"/>
+      <c r="A105" s="38"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
       <c r="H105" s="21"/>
@@ -5893,7 +5893,7 @@
       <c r="O105" s="21"/>
     </row>
     <row r="106" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A106" s="48"/>
+      <c r="A106" s="38"/>
       <c r="E106" s="20"/>
       <c r="F106" s="20"/>
       <c r="H106" s="21"/>
@@ -5906,7 +5906,7 @@
       <c r="O106" s="21"/>
     </row>
     <row r="107" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A107" s="48"/>
+      <c r="A107" s="38"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
       <c r="H107" s="21"/>
@@ -5919,7 +5919,7 @@
       <c r="O107" s="21"/>
     </row>
     <row r="108" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A108" s="48"/>
+      <c r="A108" s="38"/>
       <c r="E108" s="20"/>
       <c r="F108" s="20"/>
       <c r="H108" s="21"/>
@@ -5932,7 +5932,7 @@
       <c r="O108" s="21"/>
     </row>
     <row r="109" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A109" s="48"/>
+      <c r="A109" s="38"/>
       <c r="E109" s="20"/>
       <c r="F109" s="20"/>
       <c r="H109" s="21"/>
@@ -5945,7 +5945,7 @@
       <c r="O109" s="21"/>
     </row>
     <row r="110" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A110" s="48"/>
+      <c r="A110" s="38"/>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
       <c r="H110" s="21"/>
@@ -5958,7 +5958,7 @@
       <c r="O110" s="21"/>
     </row>
     <row r="111" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A111" s="48"/>
+      <c r="A111" s="38"/>
       <c r="E111" s="20"/>
       <c r="F111" s="20"/>
       <c r="H111" s="21"/>
@@ -5971,7 +5971,7 @@
       <c r="O111" s="21"/>
     </row>
     <row r="112" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A112" s="48"/>
+      <c r="A112" s="38"/>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
       <c r="H112" s="21"/>
@@ -5984,7 +5984,7 @@
       <c r="O112" s="21"/>
     </row>
     <row r="113" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A113" s="48"/>
+      <c r="A113" s="38"/>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
       <c r="H113" s="21"/>
@@ -5997,7 +5997,7 @@
       <c r="O113" s="21"/>
     </row>
     <row r="114" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A114" s="48"/>
+      <c r="A114" s="38"/>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
       <c r="H114" s="21"/>
@@ -6010,7 +6010,7 @@
       <c r="O114" s="21"/>
     </row>
     <row r="115" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A115" s="48"/>
+      <c r="A115" s="38"/>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
       <c r="H115" s="21"/>
@@ -6023,7 +6023,7 @@
       <c r="O115" s="21"/>
     </row>
     <row r="116" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A116" s="48"/>
+      <c r="A116" s="38"/>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
       <c r="H116" s="21"/>
@@ -6036,7 +6036,7 @@
       <c r="O116" s="21"/>
     </row>
     <row r="117" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A117" s="48"/>
+      <c r="A117" s="38"/>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
       <c r="H117" s="21"/>
@@ -6049,7 +6049,7 @@
       <c r="O117" s="21"/>
     </row>
     <row r="118" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A118" s="48"/>
+      <c r="A118" s="38"/>
       <c r="E118" s="20"/>
       <c r="F118" s="20"/>
       <c r="H118" s="21"/>
@@ -6062,7 +6062,7 @@
       <c r="O118" s="21"/>
     </row>
     <row r="119" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A119" s="48"/>
+      <c r="A119" s="38"/>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
       <c r="H119" s="21"/>
@@ -6075,7 +6075,7 @@
       <c r="O119" s="21"/>
     </row>
     <row r="120" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A120" s="48"/>
+      <c r="A120" s="38"/>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
       <c r="H120" s="21"/>
@@ -6088,7 +6088,7 @@
       <c r="O120" s="21"/>
     </row>
     <row r="121" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A121" s="48"/>
+      <c r="A121" s="38"/>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
       <c r="H121" s="21"/>
@@ -6101,7 +6101,7 @@
       <c r="O121" s="21"/>
     </row>
     <row r="122" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A122" s="48"/>
+      <c r="A122" s="38"/>
       <c r="E122" s="20"/>
       <c r="F122" s="20"/>
       <c r="H122" s="21"/>
@@ -6114,7 +6114,7 @@
       <c r="O122" s="21"/>
     </row>
     <row r="123" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A123" s="48"/>
+      <c r="A123" s="38"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
       <c r="H123" s="21"/>
@@ -6127,7 +6127,7 @@
       <c r="O123" s="21"/>
     </row>
     <row r="124" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A124" s="48"/>
+      <c r="A124" s="38"/>
       <c r="E124" s="20"/>
       <c r="F124" s="20"/>
       <c r="H124" s="21"/>
@@ -6140,7 +6140,7 @@
       <c r="O124" s="21"/>
     </row>
     <row r="125" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A125" s="48"/>
+      <c r="A125" s="38"/>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
       <c r="H125" s="21"/>
@@ -6153,7 +6153,7 @@
       <c r="O125" s="21"/>
     </row>
     <row r="126" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A126" s="48"/>
+      <c r="A126" s="38"/>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
       <c r="H126" s="21"/>
@@ -6166,7 +6166,7 @@
       <c r="O126" s="21"/>
     </row>
     <row r="127" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A127" s="48"/>
+      <c r="A127" s="38"/>
       <c r="E127" s="20"/>
       <c r="F127" s="20"/>
       <c r="H127" s="21"/>
@@ -6179,7 +6179,7 @@
       <c r="O127" s="21"/>
     </row>
     <row r="128" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A128" s="48"/>
+      <c r="A128" s="38"/>
       <c r="E128" s="20"/>
       <c r="F128" s="20"/>
       <c r="H128" s="21"/>
@@ -6192,7 +6192,7 @@
       <c r="O128" s="21"/>
     </row>
     <row r="129" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A129" s="48"/>
+      <c r="A129" s="38"/>
       <c r="E129" s="20"/>
       <c r="F129" s="20"/>
       <c r="H129" s="21"/>
@@ -6205,7 +6205,7 @@
       <c r="O129" s="21"/>
     </row>
     <row r="130" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A130" s="48"/>
+      <c r="A130" s="38"/>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
       <c r="H130" s="21"/>
@@ -6218,7 +6218,7 @@
       <c r="O130" s="21"/>
     </row>
     <row r="131" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A131" s="48"/>
+      <c r="A131" s="38"/>
       <c r="E131" s="20"/>
       <c r="F131" s="20"/>
       <c r="H131" s="21"/>
@@ -6231,7 +6231,7 @@
       <c r="O131" s="21"/>
     </row>
     <row r="132" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A132" s="48"/>
+      <c r="A132" s="38"/>
       <c r="E132" s="20"/>
       <c r="F132" s="20"/>
       <c r="H132" s="21"/>
@@ -6244,7 +6244,7 @@
       <c r="O132" s="21"/>
     </row>
     <row r="133" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A133" s="48"/>
+      <c r="A133" s="38"/>
       <c r="E133" s="20"/>
       <c r="F133" s="20"/>
       <c r="H133" s="21"/>
@@ -6257,7 +6257,7 @@
       <c r="O133" s="21"/>
     </row>
     <row r="134" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A134" s="48"/>
+      <c r="A134" s="38"/>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
       <c r="H134" s="21"/>
@@ -6270,7 +6270,7 @@
       <c r="O134" s="21"/>
     </row>
     <row r="135" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A135" s="48"/>
+      <c r="A135" s="38"/>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
       <c r="H135" s="21"/>
@@ -6283,7 +6283,7 @@
       <c r="O135" s="21"/>
     </row>
     <row r="136" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A136" s="48"/>
+      <c r="A136" s="38"/>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
       <c r="H136" s="21"/>
@@ -6296,7 +6296,7 @@
       <c r="O136" s="21"/>
     </row>
     <row r="137" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A137" s="48"/>
+      <c r="A137" s="38"/>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
       <c r="H137" s="21"/>
@@ -6309,7 +6309,7 @@
       <c r="O137" s="21"/>
     </row>
     <row r="138" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A138" s="48"/>
+      <c r="A138" s="38"/>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
       <c r="H138" s="21"/>
@@ -6322,7 +6322,7 @@
       <c r="O138" s="21"/>
     </row>
     <row r="139" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A139" s="48"/>
+      <c r="A139" s="38"/>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
       <c r="H139" s="21"/>
@@ -6335,7 +6335,7 @@
       <c r="O139" s="21"/>
     </row>
     <row r="140" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A140" s="48"/>
+      <c r="A140" s="38"/>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
       <c r="H140" s="21"/>
@@ -6348,7 +6348,7 @@
       <c r="O140" s="21"/>
     </row>
     <row r="141" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A141" s="48"/>
+      <c r="A141" s="38"/>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
       <c r="H141" s="21"/>
@@ -6361,7 +6361,7 @@
       <c r="O141" s="21"/>
     </row>
     <row r="142" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A142" s="48"/>
+      <c r="A142" s="38"/>
       <c r="E142" s="20"/>
       <c r="F142" s="20"/>
       <c r="H142" s="21"/>
@@ -6374,7 +6374,7 @@
       <c r="O142" s="21"/>
     </row>
     <row r="143" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A143" s="48"/>
+      <c r="A143" s="38"/>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
       <c r="H143" s="21"/>
@@ -6387,7 +6387,7 @@
       <c r="O143" s="21"/>
     </row>
     <row r="144" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A144" s="48"/>
+      <c r="A144" s="38"/>
       <c r="E144" s="20"/>
       <c r="F144" s="20"/>
       <c r="H144" s="21"/>
@@ -6400,7 +6400,7 @@
       <c r="O144" s="21"/>
     </row>
     <row r="145" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A145" s="48"/>
+      <c r="A145" s="38"/>
       <c r="E145" s="20"/>
       <c r="F145" s="20"/>
       <c r="H145" s="21"/>
@@ -6413,7 +6413,7 @@
       <c r="O145" s="21"/>
     </row>
     <row r="146" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A146" s="48"/>
+      <c r="A146" s="38"/>
       <c r="E146" s="20"/>
       <c r="F146" s="20"/>
       <c r="H146" s="21"/>
@@ -6426,7 +6426,7 @@
       <c r="O146" s="21"/>
     </row>
     <row r="147" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A147" s="48"/>
+      <c r="A147" s="38"/>
       <c r="E147" s="20"/>
       <c r="F147" s="20"/>
       <c r="H147" s="21"/>
@@ -6439,7 +6439,7 @@
       <c r="O147" s="21"/>
     </row>
     <row r="148" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A148" s="48"/>
+      <c r="A148" s="38"/>
       <c r="E148" s="20"/>
       <c r="F148" s="20"/>
       <c r="H148" s="21"/>
@@ -6452,7 +6452,7 @@
       <c r="O148" s="21"/>
     </row>
     <row r="149" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A149" s="48"/>
+      <c r="A149" s="38"/>
       <c r="E149" s="20"/>
       <c r="F149" s="20"/>
       <c r="H149" s="21"/>
@@ -6465,7 +6465,7 @@
       <c r="O149" s="21"/>
     </row>
     <row r="150" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A150" s="48"/>
+      <c r="A150" s="38"/>
       <c r="E150" s="20"/>
       <c r="F150" s="20"/>
       <c r="H150" s="21"/>
@@ -6478,7 +6478,7 @@
       <c r="O150" s="21"/>
     </row>
     <row r="151" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A151" s="48"/>
+      <c r="A151" s="38"/>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
       <c r="H151" s="21"/>
@@ -6491,7 +6491,7 @@
       <c r="O151" s="21"/>
     </row>
     <row r="152" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A152" s="48"/>
+      <c r="A152" s="38"/>
       <c r="E152" s="20"/>
       <c r="F152" s="20"/>
       <c r="H152" s="21"/>
@@ -6504,7 +6504,7 @@
       <c r="O152" s="21"/>
     </row>
     <row r="153" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A153" s="48"/>
+      <c r="A153" s="38"/>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
       <c r="H153" s="21"/>
@@ -6517,7 +6517,7 @@
       <c r="O153" s="21"/>
     </row>
     <row r="154" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A154" s="48"/>
+      <c r="A154" s="38"/>
       <c r="E154" s="20"/>
       <c r="F154" s="20"/>
       <c r="H154" s="21"/>
@@ -6530,7 +6530,7 @@
       <c r="O154" s="21"/>
     </row>
     <row r="155" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A155" s="48"/>
+      <c r="A155" s="38"/>
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
       <c r="H155" s="21"/>
@@ -6543,7 +6543,7 @@
       <c r="O155" s="21"/>
     </row>
     <row r="156" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A156" s="48"/>
+      <c r="A156" s="38"/>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
       <c r="H156" s="21"/>
@@ -6556,7 +6556,7 @@
       <c r="O156" s="21"/>
     </row>
     <row r="157" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A157" s="48"/>
+      <c r="A157" s="38"/>
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
       <c r="H157" s="21"/>
@@ -6569,7 +6569,7 @@
       <c r="O157" s="21"/>
     </row>
     <row r="158" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A158" s="48"/>
+      <c r="A158" s="38"/>
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
       <c r="H158" s="21"/>
@@ -6582,7 +6582,7 @@
       <c r="O158" s="21"/>
     </row>
     <row r="159" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A159" s="48"/>
+      <c r="A159" s="38"/>
       <c r="E159" s="20"/>
       <c r="F159" s="20"/>
       <c r="H159" s="21"/>
@@ -6595,7 +6595,7 @@
       <c r="O159" s="21"/>
     </row>
     <row r="160" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A160" s="48"/>
+      <c r="A160" s="38"/>
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
       <c r="H160" s="21"/>
@@ -6608,7 +6608,7 @@
       <c r="O160" s="21"/>
     </row>
     <row r="161" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A161" s="48"/>
+      <c r="A161" s="38"/>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
       <c r="H161" s="21"/>
@@ -6621,7 +6621,7 @@
       <c r="O161" s="21"/>
     </row>
     <row r="162" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A162" s="48"/>
+      <c r="A162" s="38"/>
       <c r="E162" s="20"/>
       <c r="F162" s="20"/>
       <c r="H162" s="21"/>
@@ -6634,7 +6634,7 @@
       <c r="O162" s="21"/>
     </row>
     <row r="163" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A163" s="48"/>
+      <c r="A163" s="38"/>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
       <c r="H163" s="21"/>
@@ -6647,7 +6647,7 @@
       <c r="O163" s="21"/>
     </row>
     <row r="164" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A164" s="48"/>
+      <c r="A164" s="38"/>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
       <c r="H164" s="21"/>
@@ -6660,7 +6660,7 @@
       <c r="O164" s="21"/>
     </row>
     <row r="165" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A165" s="48"/>
+      <c r="A165" s="38"/>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
       <c r="H165" s="21"/>
@@ -6673,7 +6673,7 @@
       <c r="O165" s="21"/>
     </row>
     <row r="166" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A166" s="48"/>
+      <c r="A166" s="38"/>
       <c r="E166" s="20"/>
       <c r="F166" s="20"/>
       <c r="H166" s="21"/>
@@ -6686,7 +6686,7 @@
       <c r="O166" s="21"/>
     </row>
     <row r="167" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A167" s="48"/>
+      <c r="A167" s="38"/>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
       <c r="H167" s="21"/>
@@ -6699,7 +6699,7 @@
       <c r="O167" s="21"/>
     </row>
     <row r="168" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A168" s="48"/>
+      <c r="A168" s="38"/>
       <c r="E168" s="20"/>
       <c r="F168" s="20"/>
       <c r="H168" s="21"/>
@@ -6712,7 +6712,7 @@
       <c r="O168" s="21"/>
     </row>
     <row r="169" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A169" s="48"/>
+      <c r="A169" s="38"/>
       <c r="E169" s="20"/>
       <c r="F169" s="20"/>
       <c r="H169" s="21"/>
@@ -6725,7 +6725,7 @@
       <c r="O169" s="21"/>
     </row>
     <row r="170" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A170" s="48"/>
+      <c r="A170" s="38"/>
       <c r="E170" s="20"/>
       <c r="F170" s="20"/>
       <c r="H170" s="21"/>
@@ -6738,7 +6738,7 @@
       <c r="O170" s="21"/>
     </row>
     <row r="171" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A171" s="48"/>
+      <c r="A171" s="38"/>
       <c r="E171" s="20"/>
       <c r="F171" s="20"/>
       <c r="H171" s="21"/>
@@ -6751,7 +6751,7 @@
       <c r="O171" s="21"/>
     </row>
     <row r="172" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A172" s="48"/>
+      <c r="A172" s="38"/>
       <c r="E172" s="20"/>
       <c r="F172" s="20"/>
       <c r="H172" s="21"/>
@@ -6764,7 +6764,7 @@
       <c r="O172" s="21"/>
     </row>
     <row r="173" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A173" s="48"/>
+      <c r="A173" s="38"/>
       <c r="E173" s="20"/>
       <c r="F173" s="20"/>
       <c r="H173" s="21"/>
@@ -6777,7 +6777,7 @@
       <c r="O173" s="21"/>
     </row>
     <row r="174" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A174" s="48"/>
+      <c r="A174" s="38"/>
       <c r="E174" s="20"/>
       <c r="F174" s="20"/>
       <c r="H174" s="21"/>
@@ -6790,7 +6790,7 @@
       <c r="O174" s="21"/>
     </row>
     <row r="175" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A175" s="48"/>
+      <c r="A175" s="38"/>
       <c r="E175" s="20"/>
       <c r="F175" s="20"/>
       <c r="H175" s="21"/>
@@ -6803,7 +6803,7 @@
       <c r="O175" s="21"/>
     </row>
     <row r="176" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A176" s="48"/>
+      <c r="A176" s="38"/>
       <c r="E176" s="20"/>
       <c r="F176" s="20"/>
       <c r="H176" s="21"/>
@@ -6816,7 +6816,7 @@
       <c r="O176" s="21"/>
     </row>
     <row r="177" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A177" s="48"/>
+      <c r="A177" s="38"/>
       <c r="E177" s="20"/>
       <c r="F177" s="20"/>
       <c r="H177" s="21"/>
@@ -6829,7 +6829,7 @@
       <c r="O177" s="21"/>
     </row>
     <row r="178" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A178" s="48"/>
+      <c r="A178" s="38"/>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
       <c r="H178" s="21"/>
@@ -6842,7 +6842,7 @@
       <c r="O178" s="21"/>
     </row>
     <row r="179" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A179" s="48"/>
+      <c r="A179" s="38"/>
       <c r="E179" s="20"/>
       <c r="F179" s="20"/>
       <c r="H179" s="21"/>
@@ -6855,7 +6855,7 @@
       <c r="O179" s="21"/>
     </row>
     <row r="180" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A180" s="48"/>
+      <c r="A180" s="38"/>
       <c r="E180" s="20"/>
       <c r="F180" s="20"/>
       <c r="H180" s="21"/>
@@ -6868,7 +6868,7 @@
       <c r="O180" s="21"/>
     </row>
     <row r="181" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A181" s="48"/>
+      <c r="A181" s="38"/>
       <c r="E181" s="20"/>
       <c r="F181" s="20"/>
       <c r="H181" s="21"/>
@@ -6881,7 +6881,7 @@
       <c r="O181" s="21"/>
     </row>
     <row r="182" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A182" s="48"/>
+      <c r="A182" s="38"/>
       <c r="E182" s="20"/>
       <c r="F182" s="20"/>
       <c r="H182" s="21"/>
@@ -6894,7 +6894,7 @@
       <c r="O182" s="21"/>
     </row>
     <row r="183" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A183" s="48"/>
+      <c r="A183" s="38"/>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
       <c r="H183" s="21"/>
@@ -6907,7 +6907,7 @@
       <c r="O183" s="21"/>
     </row>
     <row r="184" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A184" s="48"/>
+      <c r="A184" s="38"/>
       <c r="E184" s="20"/>
       <c r="F184" s="20"/>
       <c r="H184" s="21"/>
@@ -6920,7 +6920,7 @@
       <c r="O184" s="21"/>
     </row>
     <row r="185" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A185" s="48"/>
+      <c r="A185" s="38"/>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
       <c r="H185" s="21"/>
@@ -6933,7 +6933,7 @@
       <c r="O185" s="21"/>
     </row>
     <row r="186" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A186" s="48"/>
+      <c r="A186" s="38"/>
       <c r="E186" s="20"/>
       <c r="F186" s="20"/>
       <c r="H186" s="21"/>
@@ -6946,7 +6946,7 @@
       <c r="O186" s="21"/>
     </row>
     <row r="187" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A187" s="48"/>
+      <c r="A187" s="38"/>
       <c r="E187" s="20"/>
       <c r="F187" s="20"/>
       <c r="H187" s="21"/>
@@ -6959,7 +6959,7 @@
       <c r="O187" s="21"/>
     </row>
     <row r="188" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A188" s="48"/>
+      <c r="A188" s="38"/>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
       <c r="H188" s="21"/>
@@ -6972,7 +6972,7 @@
       <c r="O188" s="21"/>
     </row>
     <row r="189" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A189" s="48"/>
+      <c r="A189" s="38"/>
       <c r="E189" s="20"/>
       <c r="F189" s="20"/>
       <c r="H189" s="21"/>
@@ -6985,7 +6985,7 @@
       <c r="O189" s="21"/>
     </row>
     <row r="190" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A190" s="48"/>
+      <c r="A190" s="38"/>
       <c r="E190" s="20"/>
       <c r="F190" s="20"/>
       <c r="H190" s="21"/>
@@ -6998,7 +6998,7 @@
       <c r="O190" s="21"/>
     </row>
     <row r="191" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A191" s="48"/>
+      <c r="A191" s="38"/>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
       <c r="H191" s="21"/>
@@ -7011,7 +7011,7 @@
       <c r="O191" s="21"/>
     </row>
     <row r="192" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A192" s="48"/>
+      <c r="A192" s="38"/>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
       <c r="H192" s="21"/>
@@ -7024,7 +7024,7 @@
       <c r="O192" s="21"/>
     </row>
     <row r="193" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A193" s="48"/>
+      <c r="A193" s="38"/>
       <c r="E193" s="20"/>
       <c r="F193" s="20"/>
       <c r="H193" s="21"/>
@@ -7037,7 +7037,7 @@
       <c r="O193" s="21"/>
     </row>
     <row r="194" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A194" s="48"/>
+      <c r="A194" s="38"/>
       <c r="E194" s="20"/>
       <c r="F194" s="20"/>
       <c r="H194" s="21"/>
@@ -7050,7 +7050,7 @@
       <c r="O194" s="21"/>
     </row>
     <row r="195" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A195" s="48"/>
+      <c r="A195" s="38"/>
       <c r="E195" s="20"/>
       <c r="F195" s="20"/>
       <c r="H195" s="21"/>
@@ -7063,7 +7063,7 @@
       <c r="O195" s="21"/>
     </row>
     <row r="196" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A196" s="48"/>
+      <c r="A196" s="38"/>
       <c r="E196" s="20"/>
       <c r="F196" s="20"/>
       <c r="H196" s="21"/>
@@ -7076,7 +7076,7 @@
       <c r="O196" s="21"/>
     </row>
     <row r="197" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A197" s="48"/>
+      <c r="A197" s="38"/>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
       <c r="H197" s="21"/>
@@ -7089,7 +7089,7 @@
       <c r="O197" s="21"/>
     </row>
     <row r="198" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A198" s="48"/>
+      <c r="A198" s="38"/>
       <c r="E198" s="20"/>
       <c r="F198" s="20"/>
       <c r="H198" s="21"/>
@@ -7102,7 +7102,7 @@
       <c r="O198" s="21"/>
     </row>
     <row r="199" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A199" s="48"/>
+      <c r="A199" s="38"/>
       <c r="E199" s="20"/>
       <c r="F199" s="20"/>
       <c r="H199" s="21"/>
@@ -7115,7 +7115,7 @@
       <c r="O199" s="21"/>
     </row>
     <row r="200" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A200" s="48"/>
+      <c r="A200" s="38"/>
       <c r="E200" s="20"/>
       <c r="F200" s="20"/>
       <c r="H200" s="21"/>
@@ -7128,7 +7128,7 @@
       <c r="O200" s="21"/>
     </row>
     <row r="201" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A201" s="48"/>
+      <c r="A201" s="38"/>
       <c r="E201" s="20"/>
       <c r="F201" s="20"/>
       <c r="H201" s="21"/>
@@ -7141,7 +7141,7 @@
       <c r="O201" s="21"/>
     </row>
     <row r="202" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A202" s="48"/>
+      <c r="A202" s="38"/>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
       <c r="H202" s="21"/>
@@ -7154,7 +7154,7 @@
       <c r="O202" s="21"/>
     </row>
     <row r="203" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A203" s="48"/>
+      <c r="A203" s="38"/>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
       <c r="H203" s="21"/>
@@ -7167,7 +7167,7 @@
       <c r="O203" s="21"/>
     </row>
     <row r="204" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A204" s="48"/>
+      <c r="A204" s="38"/>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
       <c r="H204" s="21"/>
@@ -7180,7 +7180,7 @@
       <c r="O204" s="21"/>
     </row>
     <row r="205" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A205" s="48"/>
+      <c r="A205" s="38"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
       <c r="H205" s="21"/>
@@ -7193,7 +7193,7 @@
       <c r="O205" s="21"/>
     </row>
     <row r="206" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A206" s="48"/>
+      <c r="A206" s="38"/>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
       <c r="H206" s="21"/>
@@ -7206,7 +7206,7 @@
       <c r="O206" s="21"/>
     </row>
     <row r="207" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A207" s="48"/>
+      <c r="A207" s="38"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
       <c r="H207" s="21"/>
@@ -7219,7 +7219,7 @@
       <c r="O207" s="21"/>
     </row>
     <row r="208" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A208" s="48"/>
+      <c r="A208" s="38"/>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
       <c r="H208" s="21"/>
@@ -7232,7 +7232,7 @@
       <c r="O208" s="21"/>
     </row>
     <row r="209" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A209" s="48"/>
+      <c r="A209" s="38"/>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
       <c r="H209" s="21"/>
@@ -7245,7 +7245,7 @@
       <c r="O209" s="21"/>
     </row>
     <row r="210" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A210" s="48"/>
+      <c r="A210" s="38"/>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
       <c r="H210" s="21"/>
@@ -7258,7 +7258,7 @@
       <c r="O210" s="21"/>
     </row>
     <row r="211" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A211" s="48"/>
+      <c r="A211" s="38"/>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
       <c r="H211" s="21"/>
@@ -7271,7 +7271,7 @@
       <c r="O211" s="21"/>
     </row>
     <row r="212" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A212" s="48"/>
+      <c r="A212" s="38"/>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
       <c r="H212" s="21"/>
@@ -7284,7 +7284,7 @@
       <c r="O212" s="21"/>
     </row>
     <row r="213" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A213" s="48"/>
+      <c r="A213" s="38"/>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
       <c r="H213" s="21"/>
@@ -7297,7 +7297,7 @@
       <c r="O213" s="21"/>
     </row>
     <row r="214" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A214" s="48"/>
+      <c r="A214" s="38"/>
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
       <c r="H214" s="21"/>
@@ -7310,7 +7310,7 @@
       <c r="O214" s="21"/>
     </row>
     <row r="215" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A215" s="48"/>
+      <c r="A215" s="38"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
       <c r="H215" s="21"/>
@@ -7323,7 +7323,7 @@
       <c r="O215" s="21"/>
     </row>
     <row r="216" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A216" s="48"/>
+      <c r="A216" s="38"/>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
       <c r="H216" s="21"/>
@@ -7336,7 +7336,7 @@
       <c r="O216" s="21"/>
     </row>
     <row r="217" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A217" s="48"/>
+      <c r="A217" s="38"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
       <c r="H217" s="21"/>
@@ -7349,7 +7349,7 @@
       <c r="O217" s="21"/>
     </row>
     <row r="218" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A218" s="48"/>
+      <c r="A218" s="38"/>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
       <c r="H218" s="21"/>
@@ -7362,7 +7362,7 @@
       <c r="O218" s="21"/>
     </row>
     <row r="219" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A219" s="48"/>
+      <c r="A219" s="38"/>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
       <c r="H219" s="21"/>
@@ -7375,7 +7375,7 @@
       <c r="O219" s="21"/>
     </row>
     <row r="220" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A220" s="48"/>
+      <c r="A220" s="38"/>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
       <c r="H220" s="21"/>
@@ -7388,7 +7388,7 @@
       <c r="O220" s="21"/>
     </row>
     <row r="221" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A221" s="48"/>
+      <c r="A221" s="38"/>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
       <c r="H221" s="21"/>
@@ -7401,7 +7401,7 @@
       <c r="O221" s="21"/>
     </row>
     <row r="222" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A222" s="48"/>
+      <c r="A222" s="38"/>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
       <c r="H222" s="21"/>
@@ -7414,7 +7414,7 @@
       <c r="O222" s="21"/>
     </row>
     <row r="223" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A223" s="48"/>
+      <c r="A223" s="38"/>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
       <c r="H223" s="21"/>
@@ -7427,7 +7427,7 @@
       <c r="O223" s="21"/>
     </row>
     <row r="224" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A224" s="48"/>
+      <c r="A224" s="38"/>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
       <c r="H224" s="21"/>
@@ -7440,7 +7440,7 @@
       <c r="O224" s="21"/>
     </row>
     <row r="225" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A225" s="48"/>
+      <c r="A225" s="38"/>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
       <c r="H225" s="21"/>
@@ -7453,7 +7453,7 @@
       <c r="O225" s="21"/>
     </row>
     <row r="226" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A226" s="48"/>
+      <c r="A226" s="38"/>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
       <c r="H226" s="21"/>
@@ -7466,7 +7466,7 @@
       <c r="O226" s="21"/>
     </row>
     <row r="227" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A227" s="48"/>
+      <c r="A227" s="38"/>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
       <c r="H227" s="21"/>
@@ -7479,7 +7479,7 @@
       <c r="O227" s="21"/>
     </row>
     <row r="228" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A228" s="48"/>
+      <c r="A228" s="38"/>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
       <c r="H228" s="21"/>
@@ -7492,7 +7492,7 @@
       <c r="O228" s="21"/>
     </row>
     <row r="229" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A229" s="48"/>
+      <c r="A229" s="38"/>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
       <c r="H229" s="21"/>
@@ -7505,7 +7505,7 @@
       <c r="O229" s="21"/>
     </row>
     <row r="230" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A230" s="48"/>
+      <c r="A230" s="38"/>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
       <c r="H230" s="21"/>
@@ -7518,7 +7518,7 @@
       <c r="O230" s="21"/>
     </row>
     <row r="231" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A231" s="48"/>
+      <c r="A231" s="38"/>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
       <c r="H231" s="21"/>
@@ -7531,7 +7531,7 @@
       <c r="O231" s="21"/>
     </row>
     <row r="232" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A232" s="48"/>
+      <c r="A232" s="38"/>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
       <c r="H232" s="21"/>
@@ -7544,7 +7544,7 @@
       <c r="O232" s="21"/>
     </row>
     <row r="233" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A233" s="48"/>
+      <c r="A233" s="38"/>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
       <c r="H233" s="21"/>
@@ -7557,7 +7557,7 @@
       <c r="O233" s="21"/>
     </row>
     <row r="234" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
-      <c r="A234" s="48"/>
+      <c r="A234" s="38"/>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
       <c r="H234" s="21"/>
@@ -7628,35 +7628,35 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" ht="14">
-      <c r="A7" s="43"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -7671,46 +7671,46 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="43"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="43"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="43"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="44"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="14">
-      <c r="A13" s="43"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
@@ -7725,28 +7725,28 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="43"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="43"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="43"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="44"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
